--- a/Nemabiome_Raw_Masterfile.xlsx
+++ b/Nemabiome_Raw_Masterfile.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Desktop/Nemabiome/nemabiome_new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisyd-my.sharepoint.com/personal/tsto3616_sydney_edu_au/Documents/Desktop/Nemabiome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46166844-5BAF-3F4E-BFC3-776FF8FF8B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{51F05117-E1CF-41EF-8845-C5CF18B52B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6D8923A-DDB4-41F3-B5D5-27332C38ABB9}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1000" windowWidth="26340" windowHeight="13160" xr2:uid="{1937613A-F864-0245-B9EE-E92BE5EA92F7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{1937613A-F864-0245-B9EE-E92BE5EA92F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Master sheet-ASVs" sheetId="2" r:id="rId1"/>
     <sheet name="Raw_Species" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="233">
   <si>
     <t>Haemonchus placei</t>
   </si>
@@ -751,12 +752,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -771,10 +778,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,7 +801,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1081,7 +1089,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1091,13 +1099,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A02E9E3-718D-944D-96CA-C10D6316DA4E}">
   <dimension ref="A1:BS219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -1312,7 +1320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>224</v>
       </c>
@@ -1527,7 +1535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -1742,7 +1750,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>222</v>
       </c>
@@ -1957,7 +1965,7 @@
         <v>4464</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -2172,7 +2180,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -2387,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>219</v>
       </c>
@@ -2602,7 +2610,7 @@
         <v>16111</v>
       </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -2817,7 +2825,7 @@
         <v>13387</v>
       </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>217</v>
       </c>
@@ -3032,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -3247,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>215</v>
       </c>
@@ -3462,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>214</v>
       </c>
@@ -3677,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>213</v>
       </c>
@@ -3892,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>212</v>
       </c>
@@ -4107,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>211</v>
       </c>
@@ -4322,7 +4330,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -4537,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>209</v>
       </c>
@@ -4752,7 +4760,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>208</v>
       </c>
@@ -4967,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>207</v>
       </c>
@@ -5182,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>206</v>
       </c>
@@ -5397,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -5612,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>204</v>
       </c>
@@ -5827,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -6042,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -6257,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>201</v>
       </c>
@@ -6472,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -6687,7 +6695,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>199</v>
       </c>
@@ -6902,7 +6910,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>198</v>
       </c>
@@ -7117,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -7332,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>196</v>
       </c>
@@ -7547,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>195</v>
       </c>
@@ -7762,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>194</v>
       </c>
@@ -7977,7 +7985,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>193</v>
       </c>
@@ -8192,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>192</v>
       </c>
@@ -8407,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>191</v>
       </c>
@@ -8622,7 +8630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>190</v>
       </c>
@@ -8837,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>189</v>
       </c>
@@ -9052,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>188</v>
       </c>
@@ -9267,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>187</v>
       </c>
@@ -9482,7 +9490,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="40" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>186</v>
       </c>
@@ -9697,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -9912,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>184</v>
       </c>
@@ -10127,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>183</v>
       </c>
@@ -10342,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>182</v>
       </c>
@@ -10557,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>181</v>
       </c>
@@ -10772,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>180</v>
       </c>
@@ -10987,7 +10995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>179</v>
       </c>
@@ -11202,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -11417,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -11632,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -11847,7 +11855,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="51" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -12062,7 +12070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>174</v>
       </c>
@@ -12277,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>173</v>
       </c>
@@ -12492,7 +12500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>172</v>
       </c>
@@ -12707,7 +12715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>171</v>
       </c>
@@ -12922,7 +12930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>170</v>
       </c>
@@ -13137,7 +13145,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="57" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>169</v>
       </c>
@@ -13352,7 +13360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>168</v>
       </c>
@@ -13567,7 +13575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -13782,7 +13790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -13997,7 +14005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>165</v>
       </c>
@@ -14212,7 +14220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -14427,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>163</v>
       </c>
@@ -14642,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>162</v>
       </c>
@@ -14857,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>161</v>
       </c>
@@ -15072,7 +15080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>160</v>
       </c>
@@ -15287,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>159</v>
       </c>
@@ -15502,7 +15510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>158</v>
       </c>
@@ -15717,7 +15725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>157</v>
       </c>
@@ -15932,7 +15940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>156</v>
       </c>
@@ -16147,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>155</v>
       </c>
@@ -16362,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -16577,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -16792,7 +16800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -17007,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>151</v>
       </c>
@@ -17222,7 +17230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -17437,7 +17445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>149</v>
       </c>
@@ -17652,7 +17660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>148</v>
       </c>
@@ -17867,7 +17875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>147</v>
       </c>
@@ -18082,7 +18090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>146</v>
       </c>
@@ -18297,7 +18305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>145</v>
       </c>
@@ -18512,7 +18520,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="82" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>144</v>
       </c>
@@ -18727,7 +18735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -18942,7 +18950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>142</v>
       </c>
@@ -19157,7 +19165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>141</v>
       </c>
@@ -19372,7 +19380,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="86" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -19587,7 +19595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>139</v>
       </c>
@@ -19802,7 +19810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>138</v>
       </c>
@@ -20017,7 +20025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>137</v>
       </c>
@@ -20232,7 +20240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>136</v>
       </c>
@@ -20447,7 +20455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>135</v>
       </c>
@@ -20662,7 +20670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -20877,7 +20885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>133</v>
       </c>
@@ -21092,7 +21100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>132</v>
       </c>
@@ -21307,7 +21315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>131</v>
       </c>
@@ -21522,7 +21530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>130</v>
       </c>
@@ -21737,7 +21745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>129</v>
       </c>
@@ -21952,7 +21960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>128</v>
       </c>
@@ -22167,7 +22175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>127</v>
       </c>
@@ -22382,7 +22390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -22597,7 +22605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>125</v>
       </c>
@@ -22812,7 +22820,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>124</v>
       </c>
@@ -23027,7 +23035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -23242,7 +23250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>122</v>
       </c>
@@ -23457,7 +23465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -23672,7 +23680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -23887,7 +23895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -24102,7 +24110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>118</v>
       </c>
@@ -24317,7 +24325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -24532,7 +24540,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -24747,7 +24755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -24962,7 +24970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -25177,7 +25185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -25392,7 +25400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -25607,7 +25615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>111</v>
       </c>
@@ -25822,7 +25830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -26037,7 +26045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>109</v>
       </c>
@@ -26252,7 +26260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>108</v>
       </c>
@@ -26467,7 +26475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>107</v>
       </c>
@@ -26682,7 +26690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>106</v>
       </c>
@@ -26897,7 +26905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>105</v>
       </c>
@@ -27112,7 +27120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>104</v>
       </c>
@@ -27327,7 +27335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>103</v>
       </c>
@@ -27542,7 +27550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>102</v>
       </c>
@@ -27757,7 +27765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>101</v>
       </c>
@@ -27972,7 +27980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>100</v>
       </c>
@@ -28187,7 +28195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>99</v>
       </c>
@@ -28402,7 +28410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>98</v>
       </c>
@@ -28617,7 +28625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>97</v>
       </c>
@@ -28832,7 +28840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>96</v>
       </c>
@@ -29047,7 +29055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>95</v>
       </c>
@@ -29262,7 +29270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>94</v>
       </c>
@@ -29477,7 +29485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>93</v>
       </c>
@@ -29692,7 +29700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>92</v>
       </c>
@@ -29907,7 +29915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>91</v>
       </c>
@@ -30122,7 +30130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>90</v>
       </c>
@@ -30337,7 +30345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>89</v>
       </c>
@@ -30552,7 +30560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>88</v>
       </c>
@@ -30767,7 +30775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>87</v>
       </c>
@@ -30982,7 +30990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>86</v>
       </c>
@@ -31197,7 +31205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>85</v>
       </c>
@@ -31412,7 +31420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>84</v>
       </c>
@@ -31627,7 +31635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>83</v>
       </c>
@@ -31842,7 +31850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>82</v>
       </c>
@@ -32057,7 +32065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>81</v>
       </c>
@@ -32272,7 +32280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>80</v>
       </c>
@@ -32487,7 +32495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>79</v>
       </c>
@@ -32702,7 +32710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>78</v>
       </c>
@@ -32917,7 +32925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>77</v>
       </c>
@@ -33132,7 +33140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>76</v>
       </c>
@@ -33347,7 +33355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>75</v>
       </c>
@@ -33562,7 +33570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>74</v>
       </c>
@@ -33777,7 +33785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>73</v>
       </c>
@@ -33992,7 +34000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>72</v>
       </c>
@@ -34207,7 +34215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>71</v>
       </c>
@@ -34422,7 +34430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>70</v>
       </c>
@@ -34637,7 +34645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>69</v>
       </c>
@@ -34852,7 +34860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>68</v>
       </c>
@@ -35067,7 +35075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>67</v>
       </c>
@@ -35282,7 +35290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>66</v>
       </c>
@@ -35497,7 +35505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>65</v>
       </c>
@@ -35712,7 +35720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>64</v>
       </c>
@@ -35927,7 +35935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>63</v>
       </c>
@@ -36142,7 +36150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>62</v>
       </c>
@@ -36357,7 +36365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>61</v>
       </c>
@@ -36572,7 +36580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>60</v>
       </c>
@@ -36787,7 +36795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>59</v>
       </c>
@@ -37002,7 +37010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>58</v>
       </c>
@@ -37217,7 +37225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>57</v>
       </c>
@@ -37432,7 +37440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>56</v>
       </c>
@@ -37647,7 +37655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>55</v>
       </c>
@@ -37862,7 +37870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>54</v>
       </c>
@@ -38077,7 +38085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>53</v>
       </c>
@@ -38292,7 +38300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>52</v>
       </c>
@@ -38507,7 +38515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>51</v>
       </c>
@@ -38722,7 +38730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>50</v>
       </c>
@@ -38937,7 +38945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>49</v>
       </c>
@@ -39152,7 +39160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>48</v>
       </c>
@@ -39367,7 +39375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>47</v>
       </c>
@@ -39582,7 +39590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>46</v>
       </c>
@@ -39797,7 +39805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>45</v>
       </c>
@@ -40012,7 +40020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>44</v>
       </c>
@@ -40227,7 +40235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>43</v>
       </c>
@@ -40442,7 +40450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>42</v>
       </c>
@@ -40657,7 +40665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>41</v>
       </c>
@@ -40872,7 +40880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>40</v>
       </c>
@@ -41087,7 +41095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>39</v>
       </c>
@@ -41302,7 +41310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>38</v>
       </c>
@@ -41517,7 +41525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>37</v>
       </c>
@@ -41732,7 +41740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>36</v>
       </c>
@@ -41947,7 +41955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>35</v>
       </c>
@@ -42162,7 +42170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>34</v>
       </c>
@@ -42377,7 +42385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -42592,7 +42600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>32</v>
       </c>
@@ -42807,7 +42815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>31</v>
       </c>
@@ -43022,7 +43030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>30</v>
       </c>
@@ -43237,7 +43245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>29</v>
       </c>
@@ -43452,7 +43460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>28</v>
       </c>
@@ -43667,7 +43675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>27</v>
       </c>
@@ -43882,7 +43890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -44097,7 +44105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>25</v>
       </c>
@@ -44312,7 +44320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>24</v>
       </c>
@@ -44527,7 +44535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>23</v>
       </c>
@@ -44742,7 +44750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -44957,7 +44965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>21</v>
       </c>
@@ -45172,7 +45180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>20</v>
       </c>
@@ -45387,7 +45395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -45602,7 +45610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>18</v>
       </c>
@@ -45817,7 +45825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -46032,7 +46040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>16</v>
       </c>
@@ -46247,7 +46255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -46462,7 +46470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>14</v>
       </c>
@@ -46677,7 +46685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -46892,7 +46900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>12</v>
       </c>
@@ -47107,7 +47115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>11</v>
       </c>
@@ -47322,7 +47330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>10</v>
       </c>
@@ -47537,7 +47545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -47752,7 +47760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -47967,7 +47975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:71" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -48191,13 +48199,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8142B924-9C70-C144-B38F-C9473EC95B6C}">
   <dimension ref="A1:BU220"/>
   <sheetViews>
-    <sheetView topLeftCell="BE1" workbookViewId="0">
-      <selection activeCell="BT3" sqref="BT3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BS24" sqref="A1:BS24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>223</v>
       </c>
@@ -48412,7 +48420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>224</v>
       </c>
@@ -48627,7 +48635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -48845,7 +48853,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -49063,7 +49071,7 @@
         <v>461663</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -49281,7 +49289,7 @@
         <v>399553</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -49499,7 +49507,7 @@
         <v>304467</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -49717,7 +49725,7 @@
         <v>220578</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -49935,7 +49943,7 @@
         <v>170366</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -50153,7 +50161,7 @@
         <v>166623</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -50371,7 +50379,7 @@
         <v>157070</v>
       </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -50589,7 +50597,7 @@
         <v>113898</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -50807,7 +50815,7 @@
         <v>103741</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -51028,7 +51036,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -51246,7 +51254,7 @@
         <v>50475</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -51464,7 +51472,7 @@
         <v>42760</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -51685,7 +51693,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -51903,7 +51911,7 @@
         <v>26901</v>
       </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -52121,7 +52129,7 @@
         <v>25474</v>
       </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -52339,7 +52347,7 @@
         <v>19376</v>
       </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -52557,7 +52565,7 @@
         <v>19255</v>
       </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -52775,7 +52783,7 @@
         <v>15891</v>
       </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -52993,7 +53001,7 @@
         <v>15656</v>
       </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -53211,7 +53219,7 @@
         <v>15347</v>
       </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -53432,7 +53440,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -53650,7 +53658,7 @@
         <v>13274</v>
       </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -53868,7 +53876,7 @@
         <v>13198</v>
       </c>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -54086,7 +54094,7 @@
         <v>13160</v>
       </c>
     </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -54304,7 +54312,7 @@
         <v>12093</v>
       </c>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -54522,7 +54530,7 @@
         <v>10288</v>
       </c>
     </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -54740,7 +54748,7 @@
         <v>9147</v>
       </c>
     </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -54958,7 +54966,7 @@
         <v>8966</v>
       </c>
     </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -55176,7 +55184,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -55394,7 +55402,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -55612,7 +55620,7 @@
         <v>7179</v>
       </c>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -55830,7 +55838,7 @@
         <v>6969</v>
       </c>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -56048,7 +56056,7 @@
         <v>6684</v>
       </c>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -56266,7 +56274,7 @@
         <v>6604</v>
       </c>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -56484,7 +56492,7 @@
         <v>5663</v>
       </c>
     </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -56702,7 +56710,7 @@
         <v>5357</v>
       </c>
     </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -56920,7 +56928,7 @@
         <v>5282</v>
       </c>
     </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -57138,7 +57146,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -57356,7 +57364,7 @@
         <v>4168</v>
       </c>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -57574,7 +57582,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -57792,7 +57800,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -58010,7 +58018,7 @@
         <v>3593</v>
       </c>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -58228,7 +58236,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -58446,7 +58454,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="48" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -58664,7 +58672,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="49" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -58882,7 +58890,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="50" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -59100,7 +59108,7 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="51" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -59318,7 +59326,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="52" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -59536,7 +59544,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="53" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -59754,7 +59762,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="54" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -59972,7 +59980,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="55" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -60190,7 +60198,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="56" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -60408,7 +60416,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="57" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -60626,7 +60634,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="58" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -60844,7 +60852,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="59" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -61062,7 +61070,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="60" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -61280,7 +61288,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="61" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -61498,7 +61506,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="62" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -61716,7 +61724,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="63" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -61937,7 +61945,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -62155,7 +62163,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -62373,7 +62381,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -62591,7 +62599,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -62809,7 +62817,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -63027,7 +63035,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -63245,7 +63253,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -63463,7 +63471,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -63681,7 +63689,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -63899,7 +63907,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="73" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -64117,7 +64125,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="74" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -64335,7 +64343,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="75" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -64553,7 +64561,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="76" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -64771,7 +64779,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="77" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -64989,7 +64997,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="78" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -65207,7 +65215,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="79" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -65425,7 +65433,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="80" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -65643,7 +65651,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="81" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -65861,7 +65869,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="82" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -66079,7 +66087,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="83" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -66297,7 +66305,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="84" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -66515,7 +66523,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="85" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -66733,7 +66741,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="86" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -66951,7 +66959,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="87" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -67169,7 +67177,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="88" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -67387,7 +67395,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="89" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -67605,7 +67613,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="90" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -67823,7 +67831,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="91" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -68041,7 +68049,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="92" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -68259,7 +68267,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="93" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -68477,7 +68485,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="94" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -68695,7 +68703,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="95" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -68913,7 +68921,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="96" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -69131,7 +69139,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="97" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -69349,7 +69357,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="98" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -69567,7 +69575,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="99" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -69785,7 +69793,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="100" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -70003,7 +70011,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="101" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -70221,7 +70229,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="102" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -70439,7 +70447,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="103" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -70657,7 +70665,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="104" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -70875,7 +70883,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="105" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -71093,7 +71101,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="106" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -71311,7 +71319,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="107" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -71529,7 +71537,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -71747,7 +71755,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="109" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -71965,7 +71973,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="110" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -72183,7 +72191,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -72401,7 +72409,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="112" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -72619,7 +72627,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="113" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -72837,7 +72845,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="114" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -73055,7 +73063,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="115" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -73273,7 +73281,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="116" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>0</v>
       </c>
@@ -73491,7 +73499,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="117" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>2</v>
       </c>
@@ -73709,7 +73717,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="118" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -73927,7 +73935,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="119" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -74145,7 +74153,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="120" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -74363,7 +74371,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="121" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -74581,7 +74589,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>2</v>
       </c>
@@ -74799,7 +74807,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="123" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -75017,7 +75025,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="124" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -75235,7 +75243,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="125" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -75453,7 +75461,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="126" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -75671,7 +75679,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="127" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -75889,7 +75897,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="128" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -76107,7 +76115,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="129" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -76325,7 +76333,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>0</v>
       </c>
@@ -76543,7 +76551,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="131" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -76761,7 +76769,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -76979,7 +76987,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="133" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>2</v>
       </c>
@@ -77197,7 +77205,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -77415,7 +77423,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -77633,7 +77641,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="136" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -77851,7 +77859,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="137" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -78069,7 +78077,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="138" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -78287,7 +78295,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -78505,7 +78513,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="140" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -78723,7 +78731,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -78941,7 +78949,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>0</v>
       </c>
@@ -79159,7 +79167,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -79377,7 +79385,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="144" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>1</v>
       </c>
@@ -79595,7 +79603,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -79813,7 +79821,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>2</v>
       </c>
@@ -80031,7 +80039,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>2</v>
       </c>
@@ -80249,7 +80257,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="148" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -80467,7 +80475,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="149" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -80685,7 +80693,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="150" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -80903,7 +80911,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="151" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -81121,7 +81129,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="152" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -81339,7 +81347,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="153" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -81557,7 +81565,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="154" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -81775,7 +81783,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="155" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -81993,7 +82001,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="156" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -82211,7 +82219,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="157" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -82429,7 +82437,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="158" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -82647,7 +82655,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="159" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -82865,7 +82873,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="160" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -83083,7 +83091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>3</v>
       </c>
@@ -83301,7 +83309,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="162" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -83519,7 +83527,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="163" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -83737,7 +83745,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="164" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -83955,7 +83963,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="165" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -84173,7 +84181,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="166" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>3</v>
       </c>
@@ -84391,7 +84399,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -84609,7 +84617,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="168" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -84827,7 +84835,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="169" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>2</v>
       </c>
@@ -85045,7 +85053,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="170" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -85263,7 +85271,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -85481,7 +85489,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="172" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>3</v>
       </c>
@@ -85699,7 +85707,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="173" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>3</v>
       </c>
@@ -85917,7 +85925,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="174" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -86135,7 +86143,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -86353,7 +86361,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="176" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -86571,7 +86579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>0</v>
       </c>
@@ -86789,7 +86797,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="178" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>0</v>
       </c>
@@ -87007,7 +87015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="179" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>1</v>
       </c>
@@ -87225,7 +87233,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="180" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>0</v>
       </c>
@@ -87443,7 +87451,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -87661,7 +87669,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="182" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>0</v>
       </c>
@@ -87879,7 +87887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -88097,7 +88105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>0</v>
       </c>
@@ -88315,7 +88323,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="185" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>0</v>
       </c>
@@ -88533,7 +88541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="186" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>0</v>
       </c>
@@ -88751,7 +88759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="187" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -88969,7 +88977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -89187,7 +89195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -89405,7 +89413,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -89623,7 +89631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -89841,7 +89849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -90059,7 +90067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -90277,7 +90285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -90495,7 +90503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -90713,7 +90721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -90931,7 +90939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>3</v>
       </c>
@@ -91149,7 +91157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>0</v>
       </c>
@@ -91367,7 +91375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>1</v>
       </c>
@@ -91585,7 +91593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -91803,7 +91811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1</v>
       </c>
@@ -92021,7 +92029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>0</v>
       </c>
@@ -92239,7 +92247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>1</v>
       </c>
@@ -92457,7 +92465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>0</v>
       </c>
@@ -92675,7 +92683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>1</v>
       </c>
@@ -92893,7 +92901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>0</v>
       </c>
@@ -93111,7 +93119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -93329,7 +93337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -93547,7 +93555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -93765,7 +93773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>0</v>
       </c>
@@ -93983,7 +93991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -94201,7 +94209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>0</v>
       </c>
@@ -94419,7 +94427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>0</v>
       </c>
@@ -94637,7 +94645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -94855,7 +94863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>0</v>
       </c>
@@ -95073,7 +95081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>0</v>
       </c>
@@ -95291,7 +95299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -95509,7 +95517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -95727,7 +95735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -95945,7 +95953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:72" x14ac:dyDescent="0.35">
       <c r="BT220">
         <v>2698068</v>
       </c>
@@ -95953,4 +95961,5182 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AA139A-E2D0-4C39-8B92-1E95CD122EBF}">
+  <dimension ref="A1:BS24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1">
+        <v>13</v>
+      </c>
+      <c r="C1">
+        <v>13</v>
+      </c>
+      <c r="D1">
+        <v>13</v>
+      </c>
+      <c r="E1">
+        <v>13</v>
+      </c>
+      <c r="F1">
+        <v>13</v>
+      </c>
+      <c r="G1">
+        <v>13</v>
+      </c>
+      <c r="H1">
+        <v>13</v>
+      </c>
+      <c r="I1">
+        <v>13</v>
+      </c>
+      <c r="J1">
+        <v>13</v>
+      </c>
+      <c r="K1">
+        <v>13</v>
+      </c>
+      <c r="L1">
+        <v>13</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <v>14</v>
+      </c>
+      <c r="S1">
+        <v>14</v>
+      </c>
+      <c r="T1">
+        <v>14</v>
+      </c>
+      <c r="U1">
+        <v>14</v>
+      </c>
+      <c r="V1">
+        <v>14</v>
+      </c>
+      <c r="W1">
+        <v>14</v>
+      </c>
+      <c r="X1">
+        <v>14</v>
+      </c>
+      <c r="Y1">
+        <v>14</v>
+      </c>
+      <c r="Z1">
+        <v>14</v>
+      </c>
+      <c r="AA1">
+        <v>14</v>
+      </c>
+      <c r="AB1">
+        <v>14</v>
+      </c>
+      <c r="AC1">
+        <v>14</v>
+      </c>
+      <c r="AD1">
+        <v>15</v>
+      </c>
+      <c r="AE1">
+        <v>15</v>
+      </c>
+      <c r="AF1">
+        <v>15</v>
+      </c>
+      <c r="AG1">
+        <v>15</v>
+      </c>
+      <c r="AH1">
+        <v>15</v>
+      </c>
+      <c r="AI1">
+        <v>15</v>
+      </c>
+      <c r="AJ1">
+        <v>15</v>
+      </c>
+      <c r="AK1">
+        <v>15</v>
+      </c>
+      <c r="AL1">
+        <v>15</v>
+      </c>
+      <c r="AM1">
+        <v>15</v>
+      </c>
+      <c r="AN1">
+        <v>15</v>
+      </c>
+      <c r="AO1">
+        <v>15</v>
+      </c>
+      <c r="AP1">
+        <v>15</v>
+      </c>
+      <c r="AQ1">
+        <v>15</v>
+      </c>
+      <c r="AR1">
+        <v>16</v>
+      </c>
+      <c r="AS1">
+        <v>16</v>
+      </c>
+      <c r="AT1">
+        <v>16</v>
+      </c>
+      <c r="AU1">
+        <v>16</v>
+      </c>
+      <c r="AV1">
+        <v>16</v>
+      </c>
+      <c r="AW1">
+        <v>16</v>
+      </c>
+      <c r="AX1">
+        <v>16</v>
+      </c>
+      <c r="AY1">
+        <v>16</v>
+      </c>
+      <c r="AZ1">
+        <v>16</v>
+      </c>
+      <c r="BA1">
+        <v>16</v>
+      </c>
+      <c r="BB1">
+        <v>16</v>
+      </c>
+      <c r="BC1">
+        <v>16</v>
+      </c>
+      <c r="BD1">
+        <v>16</v>
+      </c>
+      <c r="BE1">
+        <v>16</v>
+      </c>
+      <c r="BF1">
+        <v>17</v>
+      </c>
+      <c r="BG1">
+        <v>17</v>
+      </c>
+      <c r="BH1">
+        <v>17</v>
+      </c>
+      <c r="BI1">
+        <v>17</v>
+      </c>
+      <c r="BJ1">
+        <v>17</v>
+      </c>
+      <c r="BK1">
+        <v>17</v>
+      </c>
+      <c r="BL1">
+        <v>17</v>
+      </c>
+      <c r="BM1">
+        <v>17</v>
+      </c>
+      <c r="BN1">
+        <v>17</v>
+      </c>
+      <c r="BO1">
+        <v>17</v>
+      </c>
+      <c r="BP1">
+        <v>17</v>
+      </c>
+      <c r="BQ1">
+        <v>17</v>
+      </c>
+      <c r="BR1">
+        <v>17</v>
+      </c>
+      <c r="BS1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" t="s">
+        <v>226</v>
+      </c>
+      <c r="L2" t="s">
+        <v>227</v>
+      </c>
+      <c r="M2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>225</v>
+      </c>
+      <c r="S2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T2" t="s">
+        <v>227</v>
+      </c>
+      <c r="U2" t="s">
+        <v>228</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>2</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ2">
+        <v>2</v>
+      </c>
+      <c r="AK2">
+        <v>3</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>2</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>3</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX2">
+        <v>2</v>
+      </c>
+      <c r="AY2">
+        <v>3</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>2</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>3</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BL2">
+        <v>2</v>
+      </c>
+      <c r="BM2">
+        <v>3</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" t="s">
+        <v>230</v>
+      </c>
+      <c r="N3" t="s">
+        <v>231</v>
+      </c>
+      <c r="O3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>231</v>
+      </c>
+      <c r="R3" t="s">
+        <v>231</v>
+      </c>
+      <c r="S3" t="s">
+        <v>231</v>
+      </c>
+      <c r="T3" t="s">
+        <v>231</v>
+      </c>
+      <c r="U3" t="s">
+        <v>231</v>
+      </c>
+      <c r="V3" t="s">
+        <v>230</v>
+      </c>
+      <c r="W3" t="s">
+        <v>230</v>
+      </c>
+      <c r="X3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>231</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>231</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>231</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>231</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>231</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>231</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>231</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>230</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>231</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>12633</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>12978</v>
+      </c>
+      <c r="I4">
+        <v>14643</v>
+      </c>
+      <c r="J4">
+        <v>13453</v>
+      </c>
+      <c r="K4">
+        <v>13050</v>
+      </c>
+      <c r="L4">
+        <v>17619</v>
+      </c>
+      <c r="M4">
+        <v>12983</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13091</v>
+      </c>
+      <c r="R4">
+        <v>19170</v>
+      </c>
+      <c r="S4">
+        <v>18416</v>
+      </c>
+      <c r="T4">
+        <v>3430</v>
+      </c>
+      <c r="U4">
+        <v>18437</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>13905</v>
+      </c>
+      <c r="AC4">
+        <v>14285</v>
+      </c>
+      <c r="AD4">
+        <v>17448</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>17157</v>
+      </c>
+      <c r="AK4">
+        <v>13326</v>
+      </c>
+      <c r="AL4">
+        <v>15039</v>
+      </c>
+      <c r="AM4">
+        <v>14176</v>
+      </c>
+      <c r="AN4">
+        <v>12365</v>
+      </c>
+      <c r="AO4">
+        <v>13533</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>3</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>18608</v>
+      </c>
+      <c r="AT4">
+        <v>18824</v>
+      </c>
+      <c r="AU4">
+        <v>20494</v>
+      </c>
+      <c r="AV4">
+        <v>18292</v>
+      </c>
+      <c r="AW4">
+        <v>18396</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>20200</v>
+      </c>
+      <c r="BE4">
+        <v>17696</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>4175</v>
+      </c>
+      <c r="BH4">
+        <v>3773</v>
+      </c>
+      <c r="BI4">
+        <v>4224</v>
+      </c>
+      <c r="BJ4">
+        <v>4108</v>
+      </c>
+      <c r="BK4">
+        <v>3593</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>3676</v>
+      </c>
+      <c r="BS4">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>11666</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>11259</v>
+      </c>
+      <c r="I5">
+        <v>12281</v>
+      </c>
+      <c r="J5">
+        <v>11561</v>
+      </c>
+      <c r="K5">
+        <v>11148</v>
+      </c>
+      <c r="L5">
+        <v>14945</v>
+      </c>
+      <c r="M5">
+        <v>11315</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10176</v>
+      </c>
+      <c r="R5">
+        <v>14570</v>
+      </c>
+      <c r="S5">
+        <v>14440</v>
+      </c>
+      <c r="T5">
+        <v>2817</v>
+      </c>
+      <c r="U5">
+        <v>13970</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>10756</v>
+      </c>
+      <c r="AC5">
+        <v>11194</v>
+      </c>
+      <c r="AD5">
+        <v>16136</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>16136</v>
+      </c>
+      <c r="AK5">
+        <v>12487</v>
+      </c>
+      <c r="AL5">
+        <v>13853</v>
+      </c>
+      <c r="AM5">
+        <v>12863</v>
+      </c>
+      <c r="AN5">
+        <v>11611</v>
+      </c>
+      <c r="AO5">
+        <v>12594</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>15732</v>
+      </c>
+      <c r="AT5">
+        <v>15822</v>
+      </c>
+      <c r="AU5">
+        <v>16838</v>
+      </c>
+      <c r="AV5">
+        <v>15389</v>
+      </c>
+      <c r="AW5">
+        <v>15573</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>16910</v>
+      </c>
+      <c r="BE5">
+        <v>14753</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>4623</v>
+      </c>
+      <c r="BH5">
+        <v>4282</v>
+      </c>
+      <c r="BI5">
+        <v>4559</v>
+      </c>
+      <c r="BJ5">
+        <v>4438</v>
+      </c>
+      <c r="BK5">
+        <v>3864</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>3982</v>
+      </c>
+      <c r="BS5">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>13263</v>
+      </c>
+      <c r="F6">
+        <v>11577</v>
+      </c>
+      <c r="G6">
+        <v>11999</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>10737</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12047</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>12473</v>
+      </c>
+      <c r="W6">
+        <v>12774</v>
+      </c>
+      <c r="X6">
+        <v>15671</v>
+      </c>
+      <c r="Y6">
+        <v>17893</v>
+      </c>
+      <c r="Z6">
+        <v>8133</v>
+      </c>
+      <c r="AA6">
+        <v>13103</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>9072</v>
+      </c>
+      <c r="AG6">
+        <v>12696</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>10876</v>
+      </c>
+      <c r="AQ6">
+        <v>11421</v>
+      </c>
+      <c r="AR6">
+        <v>16680</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>17638</v>
+      </c>
+      <c r="AY6">
+        <v>16377</v>
+      </c>
+      <c r="AZ6">
+        <v>15255</v>
+      </c>
+      <c r="BA6">
+        <v>16055</v>
+      </c>
+      <c r="BB6">
+        <v>16233</v>
+      </c>
+      <c r="BC6">
+        <v>14318</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>3679</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>4493</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>9187</v>
+      </c>
+      <c r="D7">
+        <v>3741</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>9410</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7275</v>
+      </c>
+      <c r="P7">
+        <v>9228</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>9517</v>
+      </c>
+      <c r="X7">
+        <v>11892</v>
+      </c>
+      <c r="Y7">
+        <v>13378</v>
+      </c>
+      <c r="Z7">
+        <v>5929</v>
+      </c>
+      <c r="AA7">
+        <v>10064</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>11503</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>11799</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>14023</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>14712</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>12841</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>12124</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10596</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>9704</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>8810</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>9217</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>8259</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>10057</v>
+      </c>
+      <c r="AI8">
+        <v>10589</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>10241</v>
+      </c>
+      <c r="AQ8">
+        <v>10381</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>13896</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>13438</v>
+      </c>
+      <c r="BB8">
+        <v>13996</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>3918</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>4016</v>
+      </c>
+      <c r="BM8">
+        <v>3893</v>
+      </c>
+      <c r="BN8">
+        <v>4738</v>
+      </c>
+      <c r="BO8">
+        <v>4533</v>
+      </c>
+      <c r="BP8">
+        <v>3475</v>
+      </c>
+      <c r="BQ8">
+        <v>3313</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>11496</v>
+      </c>
+      <c r="D9">
+        <v>4574</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>8765</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>12795</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>11337</v>
+      </c>
+      <c r="AI9">
+        <v>11703</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>3700</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>3705</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>3317</v>
+      </c>
+      <c r="BQ9">
+        <v>3291</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>638</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>687</v>
+      </c>
+      <c r="I10">
+        <v>861</v>
+      </c>
+      <c r="J10">
+        <v>716</v>
+      </c>
+      <c r="K10">
+        <v>706</v>
+      </c>
+      <c r="L10">
+        <v>925</v>
+      </c>
+      <c r="M10">
+        <v>683</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>793</v>
+      </c>
+      <c r="R10">
+        <v>1203</v>
+      </c>
+      <c r="S10">
+        <v>1130</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1045</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>795</v>
+      </c>
+      <c r="AC10">
+        <v>989</v>
+      </c>
+      <c r="AD10">
+        <v>886</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>722</v>
+      </c>
+      <c r="AK10">
+        <v>644</v>
+      </c>
+      <c r="AL10">
+        <v>663</v>
+      </c>
+      <c r="AM10">
+        <v>668</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>624</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>690</v>
+      </c>
+      <c r="AT10">
+        <v>662</v>
+      </c>
+      <c r="AU10">
+        <v>723</v>
+      </c>
+      <c r="AV10">
+        <v>696</v>
+      </c>
+      <c r="AW10">
+        <v>617</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>610</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4619</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4173</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5042</v>
+      </c>
+      <c r="J11" s="3">
+        <v>4806</v>
+      </c>
+      <c r="K11" s="3">
+        <v>4991</v>
+      </c>
+      <c r="L11" s="3">
+        <v>6019</v>
+      </c>
+      <c r="M11" s="3">
+        <v>5232</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2749</v>
+      </c>
+      <c r="R11" s="3">
+        <v>3436</v>
+      </c>
+      <c r="S11" s="3">
+        <v>4791</v>
+      </c>
+      <c r="T11" s="3">
+        <v>511</v>
+      </c>
+      <c r="U11" s="3">
+        <v>4362</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>3511</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>3372</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>9185</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>8678</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>6578</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>7918</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>7148</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>6764</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>7336</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>226</v>
+      </c>
+      <c r="AU11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="3">
+        <v>223</v>
+      </c>
+      <c r="BE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="3">
+        <v>15792</v>
+      </c>
+      <c r="BH11" s="3">
+        <v>16093</v>
+      </c>
+      <c r="BI11" s="3">
+        <v>16447</v>
+      </c>
+      <c r="BJ11" s="3">
+        <v>16683</v>
+      </c>
+      <c r="BK11" s="3">
+        <v>13734</v>
+      </c>
+      <c r="BL11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="3">
+        <v>14048</v>
+      </c>
+      <c r="BS11" s="3">
+        <v>16111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3812</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3502</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4038</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4043</v>
+      </c>
+      <c r="K12" s="3">
+        <v>4196</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4773</v>
+      </c>
+      <c r="M12" s="3">
+        <v>4291</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1830</v>
+      </c>
+      <c r="R12" s="3">
+        <v>2310</v>
+      </c>
+      <c r="S12" s="3">
+        <v>3280</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>2868</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>2312</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>2381</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>5696</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>5533</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>4177</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>4956</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>4619</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>4460</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>4686</v>
+      </c>
+      <c r="AP12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>612</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>349</v>
+      </c>
+      <c r="AU12" s="3">
+        <v>484</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="3">
+        <v>472</v>
+      </c>
+      <c r="AX12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="3">
+        <v>457</v>
+      </c>
+      <c r="BE12" s="3">
+        <v>408</v>
+      </c>
+      <c r="BF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="3">
+        <v>12801</v>
+      </c>
+      <c r="BH12" s="3">
+        <v>13394</v>
+      </c>
+      <c r="BI12" s="3">
+        <v>13237</v>
+      </c>
+      <c r="BJ12" s="3">
+        <v>13921</v>
+      </c>
+      <c r="BK12" s="3">
+        <v>11452</v>
+      </c>
+      <c r="BL12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="3">
+        <v>11629</v>
+      </c>
+      <c r="BS12" s="3">
+        <v>13387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5154</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>3675</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>2720</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>3395</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>7279</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>6842</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>5601</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>6669</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>329</v>
+      </c>
+      <c r="AY13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="3">
+        <v>11299</v>
+      </c>
+      <c r="BG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="3">
+        <v>12205</v>
+      </c>
+      <c r="BM13" s="3">
+        <v>11313</v>
+      </c>
+      <c r="BN13" s="3">
+        <v>13505</v>
+      </c>
+      <c r="BO13" s="3">
+        <v>13040</v>
+      </c>
+      <c r="BP13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="3">
+        <v>10872</v>
+      </c>
+      <c r="BR13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4398</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4394</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>3142</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>274</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>4357</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>4324</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>4463</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>3535</v>
+      </c>
+      <c r="AQ14" s="3">
+        <v>4176</v>
+      </c>
+      <c r="AR14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="3">
+        <v>482</v>
+      </c>
+      <c r="AZ14" s="3">
+        <v>442</v>
+      </c>
+      <c r="BA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="3">
+        <v>9397</v>
+      </c>
+      <c r="BG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="3">
+        <v>10169</v>
+      </c>
+      <c r="BM14" s="3">
+        <v>9581</v>
+      </c>
+      <c r="BN14" s="3">
+        <v>11407</v>
+      </c>
+      <c r="BO14" s="3">
+        <v>10766</v>
+      </c>
+      <c r="BP14" s="3">
+        <v>9321</v>
+      </c>
+      <c r="BQ14" s="3">
+        <v>9113</v>
+      </c>
+      <c r="BR14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4913</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2534</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4942</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>3344</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>4011</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>2753</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>3060</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>5608</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>7014</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="3">
+        <v>312</v>
+      </c>
+      <c r="AS15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="3">
+        <v>295</v>
+      </c>
+      <c r="AZ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="3">
+        <v>292</v>
+      </c>
+      <c r="BC15" s="3">
+        <v>339</v>
+      </c>
+      <c r="BD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="3">
+        <v>11058</v>
+      </c>
+      <c r="BQ15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4257</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2203</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4442</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1479</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1717</v>
+      </c>
+      <c r="W16" s="3">
+        <v>2138</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1860</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>2591</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>1626</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>4891</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>3513</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="3">
+        <v>529</v>
+      </c>
+      <c r="AY16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="3">
+        <v>460</v>
+      </c>
+      <c r="BB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="3">
+        <v>602</v>
+      </c>
+      <c r="BD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>494</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3">
+        <v>393</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>441</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>773</v>
+      </c>
+      <c r="T17" s="3">
+        <v>66</v>
+      </c>
+      <c r="U17" s="3">
+        <v>644</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>540</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>1910</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>1614</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>1549</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>1285</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>1508</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>151</v>
+      </c>
+      <c r="AT17" s="3">
+        <v>95</v>
+      </c>
+      <c r="AU17" s="3">
+        <v>116</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="3">
+        <v>140</v>
+      </c>
+      <c r="BF17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="3">
+        <v>2167</v>
+      </c>
+      <c r="BH17" s="3">
+        <v>2379</v>
+      </c>
+      <c r="BI17" s="3">
+        <v>2316</v>
+      </c>
+      <c r="BJ17" s="3">
+        <v>2498</v>
+      </c>
+      <c r="BK17" s="3">
+        <v>1970</v>
+      </c>
+      <c r="BL17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="3">
+        <v>2025</v>
+      </c>
+      <c r="BS17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4939</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>4651</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>2663</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>7002</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR18" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>332</v>
+      </c>
+      <c r="O19" s="3">
+        <v>266</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>561</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>70</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>1504</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>1430</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>1444</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="3">
+        <v>105</v>
+      </c>
+      <c r="AZ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="3">
+        <v>95</v>
+      </c>
+      <c r="BB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="3">
+        <v>1655</v>
+      </c>
+      <c r="BG19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="3">
+        <v>1914</v>
+      </c>
+      <c r="BM19" s="3">
+        <v>1846</v>
+      </c>
+      <c r="BN19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="3">
+        <v>1917</v>
+      </c>
+      <c r="BP19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="3">
+        <v>1502</v>
+      </c>
+      <c r="BR19" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1192</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1055</v>
+      </c>
+      <c r="I20">
+        <v>1291</v>
+      </c>
+      <c r="J20">
+        <v>1375</v>
+      </c>
+      <c r="K20">
+        <v>1116</v>
+      </c>
+      <c r="L20">
+        <v>1767</v>
+      </c>
+      <c r="M20">
+        <v>1375</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1023</v>
+      </c>
+      <c r="R20">
+        <v>1419</v>
+      </c>
+      <c r="S20">
+        <v>1811</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>1868</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>1226</v>
+      </c>
+      <c r="AC20">
+        <v>1224</v>
+      </c>
+      <c r="AD20">
+        <v>1505</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>1570</v>
+      </c>
+      <c r="AK20">
+        <v>951</v>
+      </c>
+      <c r="AL20">
+        <v>1152</v>
+      </c>
+      <c r="AM20">
+        <v>1391</v>
+      </c>
+      <c r="AN20">
+        <v>1064</v>
+      </c>
+      <c r="AO20">
+        <v>1004</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>356</v>
+      </c>
+      <c r="AT20">
+        <v>381</v>
+      </c>
+      <c r="AU20">
+        <v>367</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <v>369</v>
+      </c>
+      <c r="BE20">
+        <v>320</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>2001</v>
+      </c>
+      <c r="BH20">
+        <v>1975</v>
+      </c>
+      <c r="BI20">
+        <v>2084</v>
+      </c>
+      <c r="BJ20">
+        <v>2146</v>
+      </c>
+      <c r="BK20">
+        <v>2050</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>0</v>
+      </c>
+      <c r="BR20">
+        <v>2085</v>
+      </c>
+      <c r="BS20">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>787</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>734</v>
+      </c>
+      <c r="I21">
+        <v>885</v>
+      </c>
+      <c r="J21">
+        <v>920</v>
+      </c>
+      <c r="K21">
+        <v>864</v>
+      </c>
+      <c r="L21">
+        <v>1223</v>
+      </c>
+      <c r="M21">
+        <v>1003</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>1128</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>742</v>
+      </c>
+      <c r="AK21">
+        <v>649</v>
+      </c>
+      <c r="AL21">
+        <v>767</v>
+      </c>
+      <c r="AM21">
+        <v>769</v>
+      </c>
+      <c r="AN21">
+        <v>696</v>
+      </c>
+      <c r="AO21">
+        <v>804</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>457</v>
+      </c>
+      <c r="AT21">
+        <v>369</v>
+      </c>
+      <c r="AU21">
+        <v>473</v>
+      </c>
+      <c r="AV21">
+        <v>392</v>
+      </c>
+      <c r="AW21">
+        <v>432</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>444</v>
+      </c>
+      <c r="BE21">
+        <v>373</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>1929</v>
+      </c>
+      <c r="BH21">
+        <v>1557</v>
+      </c>
+      <c r="BI21">
+        <v>1728</v>
+      </c>
+      <c r="BJ21">
+        <v>1572</v>
+      </c>
+      <c r="BK21">
+        <v>1510</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>0</v>
+      </c>
+      <c r="BR21">
+        <v>1685</v>
+      </c>
+      <c r="BS21">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1415</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1209</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1626</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1778</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1396</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>1205</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>1213</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>345</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>1964</v>
+      </c>
+      <c r="BM22">
+        <v>1905</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>1835</v>
+      </c>
+      <c r="BQ22">
+        <v>0</v>
+      </c>
+      <c r="BR22">
+        <v>0</v>
+      </c>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1340</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1210</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>1081</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>1196</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>945</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>1374</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>380</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>391</v>
+      </c>
+      <c r="AY23">
+        <v>394</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>399</v>
+      </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
+      <c r="BC23">
+        <v>511</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>2479</v>
+      </c>
+      <c r="BO23">
+        <v>2220</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+      <c r="BQ23">
+        <v>1736</v>
+      </c>
+      <c r="BR23">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1039</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>995</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>574</v>
+      </c>
+      <c r="AG24">
+        <v>731</v>
+      </c>
+      <c r="AH24">
+        <v>742</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>683</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>615</v>
+      </c>
+      <c r="AY24">
+        <v>520</v>
+      </c>
+      <c r="AZ24">
+        <v>528</v>
+      </c>
+      <c r="BA24">
+        <v>564</v>
+      </c>
+      <c r="BB24">
+        <v>546</v>
+      </c>
+      <c r="BC24">
+        <v>666</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>1868</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>1716</v>
+      </c>
+      <c r="BN24">
+        <v>2086</v>
+      </c>
+      <c r="BO24">
+        <v>0</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
+        <v>1474</v>
+      </c>
+      <c r="BR24">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:BS24">
+    <sortCondition ref="A6:A24"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>